--- a/Project_Design/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="101" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -643,6 +643,267 @@
   </si>
   <si>
     <t>펜</t>
+  </si>
+  <si>
+    <t>WEB서비스</t>
+  </si>
+  <si>
+    <t>메타버스 서비스</t>
+  </si>
+  <si>
+    <t>WEB 서비스</t>
+  </si>
+  <si>
+    <t>사용자 캐릭터 생성</t>
+  </si>
+  <si>
+    <t>사용자 캐릭터 이동</t>
+  </si>
+  <si>
+    <t>음성채팅</t>
+  </si>
+  <si>
+    <t>채팅</t>
+  </si>
+  <si>
+    <t>문자채팅</t>
+  </si>
+  <si>
+    <t>스페이스 삭제</t>
+  </si>
+  <si>
+    <t>S-W-1</t>
+  </si>
+  <si>
+    <t>S-W-2</t>
+  </si>
+  <si>
+    <t>S-W-3</t>
+  </si>
+  <si>
+    <t>S-W-4</t>
+  </si>
+  <si>
+    <t>S-W-5</t>
+  </si>
+  <si>
+    <t>S-W-6</t>
+  </si>
+  <si>
+    <t>S-W-7</t>
+  </si>
+  <si>
+    <t>S-W-8</t>
+  </si>
+  <si>
+    <t>S-W-9</t>
+  </si>
+  <si>
+    <t>SW-1</t>
+  </si>
+  <si>
+    <t>SW-2</t>
+  </si>
+  <si>
+    <t>SW-3</t>
+  </si>
+  <si>
+    <t>SW-4</t>
+  </si>
+  <si>
+    <t>SW-5</t>
+  </si>
+  <si>
+    <t>SW-6</t>
+  </si>
+  <si>
+    <t>SW-7</t>
+  </si>
+  <si>
+    <t>SW-8</t>
+  </si>
+  <si>
+    <t>SW-9</t>
+  </si>
+  <si>
+    <t>SM-1</t>
+  </si>
+  <si>
+    <t>SM-2</t>
+  </si>
+  <si>
+    <t>SM-3</t>
+  </si>
+  <si>
+    <t>SM-4</t>
+  </si>
+  <si>
+    <t>SM-5</t>
+  </si>
+  <si>
+    <t>SM-6</t>
+  </si>
+  <si>
+    <t>SM-7</t>
+  </si>
+  <si>
+    <t>SM-8</t>
+  </si>
+  <si>
+    <t>SM-9</t>
+  </si>
+  <si>
+    <t>SM-10</t>
+  </si>
+  <si>
+    <t>서비스 회원가이</t>
+  </si>
+  <si>
+    <t>서비스 회원가입</t>
+  </si>
+  <si>
+    <t>WEB서비스 로그인</t>
+  </si>
+  <si>
+    <t>특정 키워드를 통해 멘토/멘티 검색</t>
+  </si>
+  <si>
+    <t>카테고리별로 멘토/멘티 검색</t>
+  </si>
+  <si>
+    <t>원하는 멘토/멘티와 멘토링 신청</t>
+  </si>
+  <si>
+    <t>멘토에 대한 멘토링 후기와 별점</t>
+  </si>
+  <si>
+    <t>가장 높은 평점을 가진 멘토 선전</t>
+  </si>
+  <si>
+    <t>가장 높은 평점을 가진 멘토 선정</t>
+  </si>
+  <si>
+    <t>내가 가입한 정보를 확인하거나 변경</t>
+  </si>
+  <si>
+    <t>Men-Meet 프로그램 기능 정의서</t>
+  </si>
+  <si>
+    <t>사용자가 가입한 정보를 확인하거나 변경</t>
+  </si>
+  <si>
+    <t>사용자가 예약한 멘토링의 내역 확인</t>
+  </si>
+  <si>
+    <t>메타버스 서비스 로그인</t>
+  </si>
+  <si>
+    <t>메타버스에서 이용할 사용자 캐릭터 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자가 캐릭터를 직접 이동 </t>
+  </si>
+  <si>
+    <t>그림판과 메모장 기능을 사용</t>
+  </si>
+  <si>
+    <t>펜을 통해 그림판에서 사용</t>
+  </si>
+  <si>
+    <t>사용자들 간 음성을 통해 대화</t>
+  </si>
+  <si>
+    <t>사용자들 간 문자을 통해 대화</t>
+  </si>
+  <si>
+    <t>메타버스 내에서 사용가능한 타이머 기능</t>
+  </si>
+  <si>
+    <t>멘토링 시작시 스페이스 생성</t>
+  </si>
+  <si>
+    <t>멘토링 종료시 스페이스 삭제</t>
+  </si>
+  <si>
+    <t>C/R</t>
+  </si>
+  <si>
+    <t>C / R</t>
+  </si>
+  <si>
+    <t>R / U</t>
+  </si>
+  <si>
+    <t>SignUp</t>
+  </si>
+  <si>
+    <t>LoginW</t>
+  </si>
+  <si>
+    <t>SearchM</t>
+  </si>
+  <si>
+    <t>SearchW</t>
+  </si>
+  <si>
+    <t>SignUpW</t>
+  </si>
+  <si>
+    <t>KeywordSearchW</t>
+  </si>
+  <si>
+    <t>KategorySearchW</t>
+  </si>
+  <si>
+    <t>GoToMentW</t>
+  </si>
+  <si>
+    <t>ApplyMentW</t>
+  </si>
+  <si>
+    <t>ReviewMentW</t>
+  </si>
+  <si>
+    <t>BestMentW</t>
+  </si>
+  <si>
+    <t>MypageW</t>
+  </si>
+  <si>
+    <t>ReservationW</t>
+  </si>
+  <si>
+    <t>LoginM</t>
+  </si>
+  <si>
+    <t>UserCharNewM</t>
+  </si>
+  <si>
+    <t>UserCharMoveM</t>
+  </si>
+  <si>
+    <t>PaintM</t>
+  </si>
+  <si>
+    <t>PenM</t>
+  </si>
+  <si>
+    <t>CharChatM</t>
+  </si>
+  <si>
+    <t>VoiceCHatM</t>
+  </si>
+  <si>
+    <t>VoiceChatM</t>
+  </si>
+  <si>
+    <t>TimerM</t>
+  </si>
+  <si>
+    <t>NewSpaceM</t>
+  </si>
+  <si>
+    <t>DeleteSpaceM</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1472,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1437,14 +1698,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1823,6 +2078,92 @@
         <color theme="1"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2003,7 +2344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3213,14 +3554,131 @@
     <xf numFmtId="0" fontId="81" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="81" fillId="38" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="81" fillId="38" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="81" fillId="38" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3340,7 +3798,7 @@
               <a:latin typeface="맑은 고딕"/>
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
-            <a:t>데이터 시각화(Life Of Day)</a:t>
+            <a:t>멘토링 플랫폼, Men-Meet</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3878,7 +4336,7 @@
   <dimension ref="P29:P32"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
@@ -3937,7 +4395,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -3946,7 +4404,7 @@
     <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="38" width="16.44944403" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="39" width="20.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="27.33833334" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="40" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="40" width="15.56055567" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="40" width="11.11611101" customWidth="1" outlineLevel="0"/>
@@ -4712,9 +5170,9 @@
     <col min="16141" max="16384" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="29" customFormat="1" ht="21.750000" customHeight="1">
+    <row r="1" spans="1:13" s="29" customFormat="1" ht="34.500000" customHeight="1">
       <c r="A1" s="360" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="362"/>
@@ -4782,22 +5240,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A4" s="327" t="s">
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A4" s="430" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="413" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C4" s="259" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
+      <c r="D4" s="259" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="259" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="258" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="261" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="261"/>
       <c r="J4" s="264" t="s">
         <v>126</v>
       </c>
@@ -4808,18 +5276,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A5" s="329"/>
+    <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A5" s="431"/>
       <c r="B5" s="410"/>
       <c r="C5" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="365"/>
+      <c r="D5" s="259" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="259" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="261" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="261"/>
       <c r="J5" s="264" t="s">
         <v>126</v>
       </c>
@@ -4830,18 +5308,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A6" s="329"/>
+    <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A6" s="431"/>
       <c r="B6" s="410"/>
       <c r="C6" s="259" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="365"/>
+      <c r="D6" s="259" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="259" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="261" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="261"/>
       <c r="J6" s="264" t="s">
         <v>126</v>
       </c>
@@ -4852,18 +5340,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A7" s="329"/>
+    <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A7" s="431"/>
       <c r="B7" s="410"/>
       <c r="C7" s="259" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="365"/>
+        <v>195</v>
+      </c>
+      <c r="D7" s="259" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="259" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="261" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="261"/>
       <c r="J7" s="264" t="s">
         <v>126</v>
       </c>
@@ -4874,18 +5372,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A8" s="329"/>
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A8" s="431"/>
       <c r="B8" s="410"/>
       <c r="C8" s="259" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="262"/>
+        <v>199</v>
+      </c>
+      <c r="D8" s="259" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="259" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="261" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="261" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="261"/>
       <c r="J8" s="264" t="s">
         <v>126</v>
       </c>
@@ -4896,18 +5404,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A9" s="329"/>
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A9" s="431"/>
       <c r="B9" s="410"/>
       <c r="C9" s="259" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="260"/>
-      <c r="I9" s="262"/>
+        <v>194</v>
+      </c>
+      <c r="D9" s="259" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="259" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="261" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="261" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="261"/>
       <c r="J9" s="264" t="s">
         <v>126</v>
       </c>
@@ -4918,18 +5436,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.500000" customHeight="1">
-      <c r="A10" s="331"/>
+    <row r="10" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A10" s="432"/>
       <c r="B10" s="410"/>
       <c r="C10" s="260" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="260"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="260"/>
-      <c r="I10" s="262"/>
+        <v>197</v>
+      </c>
+      <c r="D10" s="259" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="259" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="261" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="261"/>
       <c r="J10" s="264" t="s">
         <v>126</v>
       </c>
@@ -4940,18 +5468,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="A11" s="331"/>
+    <row r="11" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A11" s="432"/>
       <c r="B11" s="410"/>
       <c r="C11" s="259" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="381"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="305"/>
-      <c r="G11" s="305"/>
-      <c r="H11" s="381"/>
-      <c r="I11" s="365"/>
+      <c r="D11" s="259" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="259" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="305" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="305" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="261" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="261"/>
       <c r="J11" s="269" t="s">
         <v>126</v>
       </c>
@@ -4962,18 +5500,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="A12" s="331"/>
+    <row r="12" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A12" s="432"/>
       <c r="B12" s="412"/>
       <c r="C12" s="259" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="260"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="285"/>
-      <c r="G12" s="261"/>
-      <c r="H12" s="284"/>
-      <c r="I12" s="365"/>
+      <c r="D12" s="259" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="259" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="285" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="261" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="261"/>
       <c r="J12" s="264" t="s">
         <v>126</v>
       </c>
@@ -4985,18 +5533,30 @@
       </c>
       <c r="M12" s="288"/>
     </row>
-    <row r="13" spans="1:13" s="29" customFormat="1" ht="16.500000" customHeight="1">
-      <c r="A13" s="329"/>
-      <c r="B13" s="413"/>
+    <row r="13" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A13" s="431"/>
+      <c r="B13" s="419" t="s">
+        <v>206</v>
+      </c>
       <c r="C13" s="259" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="260"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="262"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="260" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="259" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="261" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" s="261"/>
       <c r="J13" s="264" t="s">
         <v>126</v>
       </c>
@@ -5007,18 +5567,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A14" s="331"/>
-      <c r="B14" s="410"/>
+    <row r="14" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A14" s="432"/>
+      <c r="B14" s="420"/>
       <c r="C14" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="260"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="284"/>
-      <c r="I14" s="262"/>
+        <v>208</v>
+      </c>
+      <c r="D14" s="260" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="259" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="261" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="261"/>
       <c r="J14" s="264" t="s">
         <v>126</v>
       </c>
@@ -5029,18 +5599,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A15" s="331"/>
-      <c r="B15" s="410"/>
+    <row r="15" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A15" s="432"/>
+      <c r="B15" s="420"/>
       <c r="C15" s="259" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="260"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="365"/>
+        <v>209</v>
+      </c>
+      <c r="D15" s="260" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="259" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="261" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="261"/>
       <c r="J15" s="264" t="s">
         <v>126</v>
       </c>
@@ -5051,18 +5631,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A16" s="331"/>
-      <c r="B16" s="410"/>
+    <row r="16" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A16" s="432"/>
+      <c r="B16" s="420"/>
       <c r="C16" s="259" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="260"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="365"/>
+        <v>201</v>
+      </c>
+      <c r="D16" s="260" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="259" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="261" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16" s="261"/>
       <c r="J16" s="264" t="s">
         <v>126</v>
       </c>
@@ -5073,18 +5663,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A17" s="331"/>
-      <c r="B17" s="410"/>
-      <c r="C17" s="260" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="260"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="284"/>
-      <c r="I17" s="365"/>
+    <row r="17" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A17" s="432"/>
+      <c r="B17" s="420"/>
+      <c r="C17" s="259" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="260" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="259" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="261" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" s="261"/>
       <c r="J17" s="264" t="s">
         <v>126</v>
       </c>
@@ -5095,18 +5695,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A18" s="333"/>
-      <c r="B18" s="414"/>
-      <c r="C18" s="260" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="260"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="284"/>
-      <c r="I18" s="365"/>
+    <row r="18" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A18" s="432"/>
+      <c r="B18" s="420"/>
+      <c r="C18" s="259" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="260" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="259" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="261" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="261"/>
       <c r="J18" s="264" t="s">
         <v>126</v>
       </c>
@@ -5117,20 +5727,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A19" s="397" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="397"/>
-      <c r="C19" s="398" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="398"/>
-      <c r="E19" s="398"/>
-      <c r="F19" s="398"/>
-      <c r="G19" s="398"/>
-      <c r="H19" s="398"/>
-      <c r="I19" s="398"/>
+    <row r="19" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A19" s="432"/>
+      <c r="B19" s="453"/>
+      <c r="C19" s="259" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="260" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="259" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="261" t="s">
+        <v>288</v>
+      </c>
+      <c r="I19" s="261"/>
       <c r="J19" s="399" t="s">
         <v>126</v>
       </c>
@@ -5142,18 +5760,28 @@
       </c>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A20" s="401"/>
-      <c r="B20" s="402"/>
-      <c r="C20" s="403" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="404"/>
-      <c r="E20" s="404"/>
-      <c r="F20" s="398"/>
-      <c r="G20" s="398"/>
-      <c r="H20" s="404"/>
-      <c r="I20" s="405"/>
+    <row r="20" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A20" s="432"/>
+      <c r="B20" s="420"/>
+      <c r="C20" s="259" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="260" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="259" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="261" t="s">
+        <v>289</v>
+      </c>
+      <c r="I20" s="261"/>
       <c r="J20" s="399" t="s">
         <v>126</v>
       </c>
@@ -5164,16 +5792,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A21" s="401"/>
-      <c r="B21" s="406"/>
-      <c r="C21" s="403"/>
-      <c r="D21" s="404"/>
-      <c r="E21" s="404"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="398"/>
-      <c r="H21" s="404"/>
-      <c r="I21" s="405"/>
+    <row r="21" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A21" s="432"/>
+      <c r="B21" s="420"/>
+      <c r="C21" s="259" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="260" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="259" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="398" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="398" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="261" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" s="261"/>
       <c r="J21" s="399" t="s">
         <v>126</v>
       </c>
@@ -5184,16 +5824,28 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A22" s="401"/>
-      <c r="B22" s="406"/>
-      <c r="C22" s="403"/>
-      <c r="D22" s="404"/>
-      <c r="E22" s="404"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="398"/>
-      <c r="H22" s="404"/>
-      <c r="I22" s="405"/>
+    <row r="22" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A22" s="452"/>
+      <c r="B22" s="454"/>
+      <c r="C22" s="259" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="260" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="259" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="398" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="398" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="261" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="261"/>
       <c r="J22" s="399" t="s">
         <v>126</v>
       </c>
@@ -5205,11 +5857,13 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A23" s="401"/>
+      <c r="A23" s="436" t="s">
+        <v>40</v>
+      </c>
       <c r="B23" s="406"/>
-      <c r="C23" s="403"/>
+      <c r="C23" s="259"/>
       <c r="D23" s="403"/>
-      <c r="E23" s="403"/>
+      <c r="E23" s="259"/>
       <c r="F23" s="403"/>
       <c r="G23" s="403"/>
       <c r="H23" s="403"/>
@@ -5225,11 +5879,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A24" s="401"/>
+      <c r="A24" s="437"/>
       <c r="B24" s="406"/>
-      <c r="C24" s="403"/>
+      <c r="C24" s="259"/>
       <c r="D24" s="403"/>
-      <c r="E24" s="403"/>
+      <c r="E24" s="259"/>
       <c r="F24" s="403"/>
       <c r="G24" s="403"/>
       <c r="H24" s="403"/>
@@ -5363,10 +6017,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A4:A22"/>
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/Project_Design/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="101" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -904,6 +904,18 @@
   </si>
   <si>
     <t>DeleteSpaceM</t>
+  </si>
+  <si>
+    <t>예약 내역 확인 / 취소</t>
+  </si>
+  <si>
+    <t>사용자가 예약한 멘토링의 내역을 확인하거나 취소</t>
+  </si>
+  <si>
+    <t>R / U  / D</t>
+  </si>
+  <si>
+    <t>R / U / D</t>
   </si>
 </sst>
 </file>
@@ -4395,7 +4407,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -4404,7 +4416,7 @@
     <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="38" width="16.44944403" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="39" width="27.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="31.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="40" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="40" width="15.56055567" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="40" width="11.11611101" customWidth="1" outlineLevel="0"/>
@@ -5504,16 +5516,16 @@
       <c r="A12" s="432"/>
       <c r="B12" s="412"/>
       <c r="C12" s="259" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="D12" s="259" t="s">
         <v>231</v>
       </c>
       <c r="E12" s="259" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F12" s="285" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="G12" s="261" t="s">
         <v>62</v>

--- a/Project_Design/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="101" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -916,6 +916,45 @@
   </si>
   <si>
     <t>R / U / D</t>
+  </si>
+  <si>
+    <t>SW-10</t>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판 - 질문</t>
+  </si>
+  <si>
+    <t>C / U</t>
+  </si>
+  <si>
+    <t>QNAJW</t>
+  </si>
+  <si>
+    <t>QnaW</t>
+  </si>
+  <si>
+    <t>QnaQ</t>
+  </si>
+  <si>
+    <t>QnaqW</t>
+  </si>
+  <si>
+    <t>사용자가 궁금한 점을 질문</t>
+  </si>
+  <si>
+    <t>ㅍ</t>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판 - 답변</t>
+  </si>
+  <si>
+    <t>SW-11</t>
+  </si>
+  <si>
+    <t>사용자가 궁금한 점을 답변</t>
+  </si>
+  <si>
+    <t>QnaaW</t>
   </si>
 </sst>
 </file>
@@ -923,7 +962,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="95">
+  <fonts count="96">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -1481,6 +1520,11 @@
     <font>
       <sz val="24.0"/>
       <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
@@ -1711,7 +1755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2176,6 +2220,44 @@
         <color theme="1"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2356,7 +2438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="457">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3690,6 +3772,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="34" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3781,7 +3905,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13970" y="10160"/>
+          <a:off x="19685" y="13970"/>
           <a:ext cx="9528175" cy="5786755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3934,7 +4058,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="97155" y="2633345"/>
+          <a:off x="102870" y="2637155"/>
           <a:ext cx="9324975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line"/>
@@ -4009,7 +4133,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5671820" y="4554855"/>
+          <a:off x="5677535" y="4558665"/>
           <a:ext cx="3905250" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4406,8 +4530,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5253,10 +5377,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="328" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="413" t="s">
+      <c r="B4" s="330" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="259" t="s">
@@ -5287,10 +5411,11 @@
       <c r="L4" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A5" s="431"/>
-      <c r="B5" s="410"/>
+      <c r="A5" s="466"/>
+      <c r="B5" s="330"/>
       <c r="C5" s="259" t="s">
         <v>35</v>
       </c>
@@ -5319,10 +5444,11 @@
       <c r="L5" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A6" s="431"/>
-      <c r="B6" s="410"/>
+      <c r="A6" s="466"/>
+      <c r="B6" s="330"/>
       <c r="C6" s="259" t="s">
         <v>193</v>
       </c>
@@ -5351,10 +5477,11 @@
       <c r="L6" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A7" s="431"/>
-      <c r="B7" s="410"/>
+      <c r="A7" s="466"/>
+      <c r="B7" s="330"/>
       <c r="C7" s="259" t="s">
         <v>195</v>
       </c>
@@ -5383,10 +5510,11 @@
       <c r="L7" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A8" s="431"/>
-      <c r="B8" s="410"/>
+      <c r="A8" s="466"/>
+      <c r="B8" s="330"/>
       <c r="C8" s="259" t="s">
         <v>199</v>
       </c>
@@ -5415,10 +5543,11 @@
       <c r="L8" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A9" s="431"/>
-      <c r="B9" s="410"/>
+      <c r="A9" s="466"/>
+      <c r="B9" s="330"/>
       <c r="C9" s="259" t="s">
         <v>194</v>
       </c>
@@ -5447,10 +5576,11 @@
       <c r="L9" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A10" s="432"/>
-      <c r="B10" s="410"/>
+      <c r="A10" s="467"/>
+      <c r="B10" s="330"/>
       <c r="C10" s="260" t="s">
         <v>197</v>
       </c>
@@ -5479,10 +5609,11 @@
       <c r="L10" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A11" s="432"/>
-      <c r="B11" s="410"/>
+      <c r="A11" s="467"/>
+      <c r="B11" s="330"/>
       <c r="C11" s="259" t="s">
         <v>198</v>
       </c>
@@ -5511,10 +5642,11 @@
       <c r="L11" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A12" s="432"/>
-      <c r="B12" s="412"/>
+      <c r="A12" s="467"/>
+      <c r="B12" s="332"/>
       <c r="C12" s="259" t="s">
         <v>292</v>
       </c>
@@ -5546,59 +5678,60 @@
       <c r="M12" s="288"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A13" s="431"/>
-      <c r="B13" s="419" t="s">
-        <v>206</v>
-      </c>
+      <c r="A13" s="466"/>
+      <c r="B13" s="468"/>
       <c r="C13" s="259" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="260" t="s">
-        <v>232</v>
+        <v>297</v>
+      </c>
+      <c r="D13" s="259" t="s">
+        <v>296</v>
       </c>
       <c r="E13" s="259" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="261" t="s">
-        <v>51</v>
+        <v>303</v>
+      </c>
+      <c r="F13" s="258" t="s">
+        <v>298</v>
       </c>
       <c r="G13" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="261" t="s">
-        <v>281</v>
-      </c>
-      <c r="I13" s="261"/>
-      <c r="J13" s="264" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259" t="s">
         <v>126</v>
       </c>
       <c r="K13" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="264" t="s">
+      <c r="L13" s="259" t="s">
         <v>126</v>
       </c>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A14" s="432"/>
-      <c r="B14" s="420"/>
+      <c r="A14" s="467"/>
+      <c r="B14" s="330" t="s">
+        <v>206</v>
+      </c>
       <c r="C14" s="259" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="D14" s="260" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F14" s="261" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="G14" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I14" s="261"/>
       <c r="J14" s="264" t="s">
@@ -5610,18 +5743,19 @@
       <c r="L14" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A15" s="432"/>
-      <c r="B15" s="420"/>
+      <c r="A15" s="467"/>
+      <c r="B15" s="330"/>
       <c r="C15" s="259" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="260" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15" s="259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" s="261" t="s">
         <v>126</v>
@@ -5630,7 +5764,7 @@
         <v>62</v>
       </c>
       <c r="H15" s="261" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I15" s="261"/>
       <c r="J15" s="264" t="s">
@@ -5642,18 +5776,19 @@
       <c r="L15" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A16" s="432"/>
-      <c r="B16" s="420"/>
+      <c r="A16" s="467"/>
+      <c r="B16" s="330"/>
       <c r="C16" s="259" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D16" s="260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F16" s="261" t="s">
         <v>126</v>
@@ -5662,7 +5797,7 @@
         <v>62</v>
       </c>
       <c r="H16" s="261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I16" s="261"/>
       <c r="J16" s="264" t="s">
@@ -5674,18 +5809,19 @@
       <c r="L16" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A17" s="432"/>
-      <c r="B17" s="420"/>
+      <c r="A17" s="467"/>
+      <c r="B17" s="330"/>
       <c r="C17" s="259" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D17" s="260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F17" s="261" t="s">
         <v>126</v>
@@ -5694,7 +5830,7 @@
         <v>62</v>
       </c>
       <c r="H17" s="261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I17" s="261"/>
       <c r="J17" s="264" t="s">
@@ -5706,18 +5842,19 @@
       <c r="L17" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A18" s="432"/>
-      <c r="B18" s="420"/>
+      <c r="A18" s="467"/>
+      <c r="B18" s="330"/>
       <c r="C18" s="259" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D18" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" s="259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="261" t="s">
         <v>126</v>
@@ -5726,7 +5863,7 @@
         <v>62</v>
       </c>
       <c r="H18" s="261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I18" s="261"/>
       <c r="J18" s="264" t="s">
@@ -5738,177 +5875,209 @@
       <c r="L18" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A19" s="432"/>
-      <c r="B19" s="453"/>
+      <c r="A19" s="467"/>
+      <c r="B19" s="330"/>
       <c r="C19" s="259" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D19" s="260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="259" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="398" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="261" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="398" t="s">
+      <c r="G19" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H19" s="261" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I19" s="261"/>
-      <c r="J19" s="399" t="s">
+      <c r="J19" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="400" t="s">
+      <c r="K19" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="399" t="s">
+      <c r="L19" s="264" t="s">
         <v>126</v>
       </c>
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A20" s="432"/>
-      <c r="B20" s="420"/>
+      <c r="A20" s="467"/>
+      <c r="B20" s="328"/>
       <c r="C20" s="259" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D20" s="260" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20" s="259" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="398" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="261" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="398" t="s">
+      <c r="G20" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="261" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I20" s="261"/>
-      <c r="J20" s="399" t="s">
+      <c r="J20" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="400" t="s">
+      <c r="K20" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="399" t="s">
+      <c r="L20" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A21" s="432"/>
-      <c r="B21" s="420"/>
+      <c r="A21" s="467"/>
+      <c r="B21" s="330"/>
       <c r="C21" s="259" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="260" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21" s="259" t="s">
-        <v>263</v>
-      </c>
-      <c r="F21" s="398" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="398" t="s">
-        <v>40</v>
+        <v>262</v>
+      </c>
+      <c r="F21" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="261" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="261" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I21" s="261"/>
-      <c r="J21" s="399" t="s">
+      <c r="J21" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="400" t="s">
+      <c r="K21" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="399" t="s">
+      <c r="L21" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A22" s="452"/>
-      <c r="B22" s="454"/>
+      <c r="A22" s="467"/>
+      <c r="B22" s="330"/>
       <c r="C22" s="259" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D22" s="260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E22" s="259" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="398" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="398" t="s">
-        <v>40</v>
+        <v>263</v>
+      </c>
+      <c r="F22" s="261" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="261" t="s">
+        <v>62</v>
       </c>
       <c r="H22" s="261" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I22" s="261"/>
-      <c r="J22" s="399" t="s">
+      <c r="J22" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="400" t="s">
+      <c r="K22" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="399" t="s">
+      <c r="L22" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A23" s="436" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="406"/>
-      <c r="C23" s="259"/>
-      <c r="D23" s="403"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="403"/>
-      <c r="H23" s="403"/>
-      <c r="I23" s="403"/>
-      <c r="J23" s="399" t="s">
+      <c r="A23" s="469"/>
+      <c r="B23" s="330"/>
+      <c r="C23" s="259" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="260" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="259" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="261" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="261" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="261" t="s">
+        <v>291</v>
+      </c>
+      <c r="I23" s="261"/>
+      <c r="J23" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="400" t="s">
+      <c r="K23" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="399" t="s">
+      <c r="L23" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A24" s="437"/>
-      <c r="B24" s="406"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="403"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="403"/>
-      <c r="H24" s="403"/>
-      <c r="I24" s="403"/>
-      <c r="J24" s="399" t="s">
+      <c r="A24" s="470" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="338" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="259" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="259" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="259" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="258" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="261" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" s="259"/>
+      <c r="J24" s="259" t="s">
         <v>126</v>
       </c>
-      <c r="K24" s="400" t="s">
+      <c r="K24" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="399" t="s">
+      <c r="L24" s="259" t="s">
         <v>126</v>
       </c>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A25" s="387"/>
@@ -6027,16 +6196,15 @@
       <c r="E33" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:A22"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A4:A23"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20 K25:K32 K21:K22 K5:K18 K4 K19 K23 K24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21 K25:K32 K22:K23 K5:K12 K14:K19 K4 K20 K13 K24">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project_Design/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -955,6 +955,21 @@
   </si>
   <si>
     <t>QnaaW</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>각 부서 위치 표시</t>
+  </si>
+  <si>
+    <t>SM-11</t>
+  </si>
+  <si>
+    <t>학교와 각 부서들의 위치를 화면에 표시</t>
+  </si>
+  <si>
+    <t>FindM</t>
   </si>
 </sst>
 </file>
@@ -962,7 +977,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="96">
+  <fonts count="95">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -1522,13 +1537,8 @@
       <name val="Times New Roman"/>
       <color rgb="FF000000"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1754,6 +1764,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -2438,7 +2454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="471">
+  <cellXfs count="479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3815,6 +3831,30 @@
     </xf>
     <xf numFmtId="0" fontId="80" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="81" fillId="38" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="81" fillId="38" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -4531,7 +4571,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B14" sqref="B14:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5377,7 +5417,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="409" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="330" t="s">
@@ -5411,10 +5451,9 @@
       <c r="L4" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A5" s="466"/>
+      <c r="A5" s="476"/>
       <c r="B5" s="330"/>
       <c r="C5" s="259" t="s">
         <v>35</v>
@@ -5444,10 +5483,9 @@
       <c r="L5" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A6" s="466"/>
+      <c r="A6" s="476"/>
       <c r="B6" s="330"/>
       <c r="C6" s="259" t="s">
         <v>193</v>
@@ -5477,10 +5515,9 @@
       <c r="L6" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A7" s="466"/>
+      <c r="A7" s="476"/>
       <c r="B7" s="330"/>
       <c r="C7" s="259" t="s">
         <v>195</v>
@@ -5510,10 +5547,9 @@
       <c r="L7" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A8" s="466"/>
+      <c r="A8" s="476"/>
       <c r="B8" s="330"/>
       <c r="C8" s="259" t="s">
         <v>199</v>
@@ -5543,10 +5579,9 @@
       <c r="L8" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A9" s="466"/>
+      <c r="A9" s="476"/>
       <c r="B9" s="330"/>
       <c r="C9" s="259" t="s">
         <v>194</v>
@@ -5576,10 +5611,9 @@
       <c r="L9" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A10" s="467"/>
+      <c r="A10" s="477"/>
       <c r="B10" s="330"/>
       <c r="C10" s="260" t="s">
         <v>197</v>
@@ -5609,10 +5643,9 @@
       <c r="L10" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A11" s="467"/>
+      <c r="A11" s="477"/>
       <c r="B11" s="330"/>
       <c r="C11" s="259" t="s">
         <v>198</v>
@@ -5642,10 +5675,9 @@
       <c r="L11" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A12" s="467"/>
+      <c r="A12" s="477"/>
       <c r="B12" s="332"/>
       <c r="C12" s="259" t="s">
         <v>292</v>
@@ -5678,7 +5710,7 @@
       <c r="M12" s="288"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A13" s="466"/>
+      <c r="A13" s="476"/>
       <c r="B13" s="468"/>
       <c r="C13" s="259" t="s">
         <v>297</v>
@@ -5708,11 +5740,10 @@
       <c r="L13" s="259" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A14" s="467"/>
-      <c r="B14" s="330" t="s">
+      <c r="A14" s="477"/>
+      <c r="B14" s="413" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="259" t="s">
@@ -5743,11 +5774,10 @@
       <c r="L14" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A15" s="467"/>
-      <c r="B15" s="330"/>
+      <c r="A15" s="477"/>
+      <c r="B15" s="410"/>
       <c r="C15" s="259" t="s">
         <v>208</v>
       </c>
@@ -5776,11 +5806,10 @@
       <c r="L15" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A16" s="467"/>
-      <c r="B16" s="330"/>
+      <c r="A16" s="477"/>
+      <c r="B16" s="410"/>
       <c r="C16" s="259" t="s">
         <v>209</v>
       </c>
@@ -5809,11 +5838,10 @@
       <c r="L16" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A17" s="467"/>
-      <c r="B17" s="330"/>
+      <c r="A17" s="477"/>
+      <c r="B17" s="410"/>
       <c r="C17" s="259" t="s">
         <v>201</v>
       </c>
@@ -5842,11 +5870,10 @@
       <c r="L17" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A18" s="467"/>
-      <c r="B18" s="330"/>
+      <c r="A18" s="477"/>
+      <c r="B18" s="410"/>
       <c r="C18" s="259" t="s">
         <v>204</v>
       </c>
@@ -5875,11 +5902,10 @@
       <c r="L18" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A19" s="467"/>
-      <c r="B19" s="330"/>
+      <c r="A19" s="477"/>
+      <c r="B19" s="410"/>
       <c r="C19" s="259" t="s">
         <v>210</v>
       </c>
@@ -5911,8 +5937,8 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A20" s="467"/>
-      <c r="B20" s="328"/>
+      <c r="A20" s="477"/>
+      <c r="B20" s="411"/>
       <c r="C20" s="259" t="s">
         <v>212</v>
       </c>
@@ -5941,11 +5967,10 @@
       <c r="L20" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A21" s="467"/>
-      <c r="B21" s="330"/>
+      <c r="A21" s="477"/>
+      <c r="B21" s="410"/>
       <c r="C21" s="259" t="s">
         <v>202</v>
       </c>
@@ -5974,11 +5999,10 @@
       <c r="L21" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A22" s="467"/>
-      <c r="B22" s="330"/>
+      <c r="A22" s="477"/>
+      <c r="B22" s="410"/>
       <c r="C22" s="259" t="s">
         <v>203</v>
       </c>
@@ -6007,11 +6031,10 @@
       <c r="L22" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A23" s="469"/>
-      <c r="B23" s="330"/>
+      <c r="A23" s="477"/>
+      <c r="B23" s="410"/>
       <c r="C23" s="259" t="s">
         <v>213</v>
       </c>
@@ -6040,32 +6063,27 @@
       <c r="L23" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A24" s="470" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="338" t="s">
-        <v>207</v>
-      </c>
+      <c r="A24" s="478"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="259" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="259" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="D24" s="260" t="s">
+        <v>311</v>
       </c>
       <c r="E24" s="259" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F24" s="258" t="s">
-        <v>298</v>
+        <v>51</v>
       </c>
       <c r="G24" s="261" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="261" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I24" s="259"/>
       <c r="J24" s="259" t="s">
@@ -6077,21 +6095,42 @@
       <c r="L24" s="259" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A25" s="387"/>
-      <c r="B25" s="388"/>
-      <c r="C25" s="388"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
-      <c r="H25" s="388"/>
-      <c r="I25" s="391"/>
-      <c r="J25" s="392"/>
-      <c r="K25" s="392"/>
-      <c r="L25" s="23"/>
+      <c r="A25" s="470" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="338" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="259" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="259" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="259" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="258" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="261" t="s">
+        <v>308</v>
+      </c>
+      <c r="I25" s="259"/>
+      <c r="J25" s="259" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="259" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A26" s="387"/>
@@ -6198,13 +6237,13 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:A23"/>
+    <mergeCell ref="A4:A24"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B14:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21 K25:K32 K22:K23 K5:K12 K14:K19 K4 K20 K13 K24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21 K26:K32 K22:K23 K5:K12 K14:K19 K4 K20 K13 K24 K25">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>
